--- a/biology/Botanique/Liste_de_variétés_de_pommes/Liste_de_variétés_de_pommes.xlsx
+++ b/biology/Botanique/Liste_de_variétés_de_pommes/Liste_de_variétés_de_pommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_pommes</t>
+          <t>Liste_de_variétés_de_pommes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs milliers de variétés de pommes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_pommes</t>
+          <t>Liste_de_variétés_de_pommes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Listes en tableaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tableaux de classification ne contiennent que des données que l'on doit retrouver dans les fiches variétales mais sont parfois plus pratiques quand on ne sait pas bien ce que l'on cherche.
 De multiples classements sont possibles :
@@ -524,8 +538,43 @@
 par qualités intrinsèques (couleurs de pelure, couleur de chair, rusticité, conservation, etc.).
 Le tableau ci-dessous présente différentes variétés de pomme avec leur destination (à couteau, à cuire ou à cidre). Une même variété peut éventuellement se retrouver dans plusieurs catégories.
 Si l'on veut éviter de chercher dans plusieurs tableaux les caractéristiques d'une variété particulière, on consulte simplement par exemple la liste alphabétique des cultivars de pommiers domestiques.
-Liste non exhaustive de variétés de pommes
-Le tableau ci-dessous liste les variétés à couteau et à cuire. Les variétés à cidre sont listées dans un article dédié.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_pommes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_pommes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Listes en tableaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive de variétés de pommes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous liste les variétés à couteau et à cuire. Les variétés à cidre sont listées dans un article dédié.
 </t>
         </is>
       </c>
